--- a/docs/01. Dokumentasi Soal/table.xlsx
+++ b/docs/01. Dokumentasi Soal/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\CSpaceInvader\docs\01. Dokumentasi Soal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB9F782-4708-43AD-9C60-996260AF8770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6D35B0-936A-4A02-B0B5-C4B14AD22713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{60CACD7A-E4DA-4014-BEE1-3B8A15E98EC9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Sprite</t>
   </si>
@@ -54,6 +54,36 @@
   </si>
   <si>
     <t>\o/</t>
+  </si>
+  <si>
+    <t>Attributes Name</t>
+  </si>
+  <si>
+    <t>Attributes Value</t>
+  </si>
+  <si>
+    <t>Reload Time</t>
+  </si>
+  <si>
+    <t>1 Seconds</t>
+  </si>
+  <si>
+    <t>Skill Cost</t>
+  </si>
+  <si>
+    <t>Total Bullet</t>
+  </si>
+  <si>
+    <t>Bullet Symbol</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>Skill Symbol</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
@@ -439,13 +469,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C9BCE6-F098-456A-B1A3-CCDD65693223}">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -491,6 +525,62 @@
         <v>25</v>
       </c>
     </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/01. Dokumentasi Soal/table.xlsx
+++ b/docs/01. Dokumentasi Soal/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\CSpaceInvader\docs\01. Dokumentasi Soal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6D35B0-936A-4A02-B0B5-C4B14AD22713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B157E00C-D298-4C9F-932A-48A03D848FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{60CACD7A-E4DA-4014-BEE1-3B8A15E98EC9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Sprite</t>
   </si>
@@ -84,6 +84,72 @@
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Shooter Event</t>
+  </si>
+  <si>
+    <t>Reload</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>Move Up</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Move Down</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Move Right</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>Move Left</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Potion</t>
+  </si>
+  <si>
+    <t>Max Potion</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Max Energy</t>
+  </si>
+  <si>
+    <t>bomb</t>
   </si>
 </sst>
 </file>
@@ -147,13 +213,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C9BCE6-F098-456A-B1A3-CCDD65693223}">
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,6 +659,110 @@
         <v>15</v>
       </c>
     </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/01. Dokumentasi Soal/table.xlsx
+++ b/docs/01. Dokumentasi Soal/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\CSpaceInvader\docs\01. Dokumentasi Soal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B157E00C-D298-4C9F-932A-48A03D848FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873EDE2B-24C2-44A0-A485-E657D29F6A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{60CACD7A-E4DA-4014-BEE1-3B8A15E98EC9}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{60CACD7A-E4DA-4014-BEE1-3B8A15E98EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Sprite</t>
   </si>
@@ -150,6 +150,45 @@
   </si>
   <si>
     <t>bomb</t>
+  </si>
+  <si>
+    <t>Player Attribute</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>default hp</t>
+  </si>
+  <si>
+    <t>default energy</t>
+  </si>
+  <si>
+    <t>default armor</t>
+  </si>
+  <si>
+    <t>default money</t>
+  </si>
+  <si>
+    <t>default level</t>
+  </si>
+  <si>
+    <t>default xp</t>
+  </si>
+  <si>
+    <t>max hp</t>
+  </si>
+  <si>
+    <t>max energy</t>
+  </si>
+  <si>
+    <t>max armor</t>
   </si>
 </sst>
 </file>
@@ -213,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -221,17 +260,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,19 +589,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C9BCE6-F098-456A-B1A3-CCDD65693223}">
-  <dimension ref="B2:D27"/>
+  <dimension ref="B2:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.15234375" customWidth="1"/>
+    <col min="3" max="3" width="29.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -570,7 +612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -581,7 +623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -592,7 +634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -603,7 +645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -611,7 +653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -619,7 +661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -627,7 +669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
@@ -635,7 +677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -643,7 +685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -651,7 +693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -659,23 +701,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -683,7 +725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
@@ -691,7 +733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
@@ -699,7 +741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
@@ -707,15 +749,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>30</v>
       </c>
@@ -723,44 +765,132 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23" s="3">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B24" s="3">
         <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B25" s="3">
         <v>3</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B27" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B37" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B38" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B39" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="6">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/01. Dokumentasi Soal/table.xlsx
+++ b/docs/01. Dokumentasi Soal/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\CSpaceInvader\docs\01. Dokumentasi Soal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873EDE2B-24C2-44A0-A485-E657D29F6A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B4ECF4-4643-4C61-A9E7-515B0017F9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{60CACD7A-E4DA-4014-BEE1-3B8A15E98EC9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Sprite</t>
   </si>
@@ -189,6 +189,33 @@
   </si>
   <si>
     <t>max armor</t>
+  </si>
+  <si>
+    <t>Cheat Code</t>
+  </si>
+  <si>
+    <t>W + A + S + D + W + A+ S + D + W + A + S + D + W + A + S + D</t>
+  </si>
+  <si>
+    <t>A + S + D + A + S + D + A + S + D + A + S + D</t>
+  </si>
+  <si>
+    <t>W + S + W + S + W + S + A + D + A + D + A + D</t>
+  </si>
+  <si>
+    <t>D + A + S + D + A + S + W + D + A + S + W + D + A + S+ W</t>
+  </si>
+  <si>
+    <t>Bomb = 99</t>
+  </si>
+  <si>
+    <t>All Item (Except bomb) = 99</t>
+  </si>
+  <si>
+    <t>Player max attribute</t>
+  </si>
+  <si>
+    <t>Player max level</t>
   </si>
 </sst>
 </file>
@@ -252,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -275,6 +302,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,15 +621,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C9BCE6-F098-456A-B1A3-CCDD65693223}">
-  <dimension ref="B2:D39"/>
+  <dimension ref="B2:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.15234375" customWidth="1"/>
+    <col min="2" max="2" width="52.921875" customWidth="1"/>
     <col min="3" max="3" width="29.3046875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -893,6 +925,46 @@
         <v>30</v>
       </c>
     </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B43" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
